--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.80570341217483</v>
+        <v>1.988550333333333</v>
       </c>
       <c r="H2">
-        <v>1.80570341217483</v>
+        <v>5.965650999999999</v>
       </c>
       <c r="I2">
-        <v>0.003159348409831841</v>
+        <v>0.002979254250054933</v>
       </c>
       <c r="J2">
-        <v>0.003159348409831841</v>
+        <v>0.002979254250054933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.121660191956022</v>
+        <v>0.141183</v>
       </c>
       <c r="N2">
-        <v>0.121660191956022</v>
+        <v>0.423549</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3560479966105798</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3560479966105798</v>
       </c>
       <c r="Q2">
-        <v>0.2196822237408337</v>
+        <v>0.280749501711</v>
       </c>
       <c r="R2">
-        <v>0.2196822237408337</v>
+        <v>2.526745515399</v>
       </c>
       <c r="S2">
-        <v>0.003159348409831841</v>
+        <v>0.001060757507125614</v>
       </c>
       <c r="T2">
-        <v>0.003159348409831841</v>
+        <v>0.001060757507125614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.4616459925788</v>
+        <v>1.988550333333333</v>
       </c>
       <c r="H3">
-        <v>12.4616459925788</v>
+        <v>5.965650999999999</v>
       </c>
       <c r="I3">
-        <v>0.02180351500976687</v>
+        <v>0.002979254250054933</v>
       </c>
       <c r="J3">
-        <v>0.02180351500976687</v>
+        <v>0.002979254250054933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.121660191956022</v>
+        <v>0.2550053333333333</v>
       </c>
       <c r="N3">
-        <v>0.121660191956022</v>
+        <v>0.7650159999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6430954014176384</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6430954014176384</v>
       </c>
       <c r="Q3">
-        <v>1.516086243545129</v>
+        <v>0.5070909406017777</v>
       </c>
       <c r="R3">
-        <v>1.516086243545129</v>
+        <v>4.563818465415999</v>
       </c>
       <c r="S3">
-        <v>0.02180351500976687</v>
+        <v>0.001915944707864283</v>
       </c>
       <c r="T3">
-        <v>0.02180351500976687</v>
+        <v>0.001915944707864283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>289.059321802021</v>
+        <v>1.988550333333333</v>
       </c>
       <c r="H4">
-        <v>289.059321802021</v>
+        <v>5.965650999999999</v>
       </c>
       <c r="I4">
-        <v>0.5057525519001813</v>
+        <v>0.002979254250054933</v>
       </c>
       <c r="J4">
-        <v>0.5057525519001813</v>
+        <v>0.002979254250054933</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.121660191956022</v>
+        <v>0.0003396666666666667</v>
       </c>
       <c r="N4">
-        <v>0.121660191956022</v>
+        <v>0.001019</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0008566019717817321</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.000856601971781732</v>
       </c>
       <c r="Q4">
-        <v>35.16701257711141</v>
+        <v>0.0006754442632222222</v>
       </c>
       <c r="R4">
-        <v>35.16701257711141</v>
+        <v>0.006078998368999999</v>
       </c>
       <c r="S4">
-        <v>0.5057525519001813</v>
+        <v>2.552035065036161E-06</v>
       </c>
       <c r="T4">
-        <v>0.5057525519001813</v>
+        <v>2.552035065036161E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>267.781713661277</v>
+        <v>12.56197866666667</v>
       </c>
       <c r="H5">
-        <v>267.781713661277</v>
+        <v>37.68593600000001</v>
       </c>
       <c r="I5">
-        <v>0.4685241914777357</v>
+        <v>0.01882040786417077</v>
       </c>
       <c r="J5">
-        <v>0.4685241914777357</v>
+        <v>0.01882040786417077</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.121660191956022</v>
+        <v>0.141183</v>
       </c>
       <c r="N5">
-        <v>0.121660191956022</v>
+        <v>0.423549</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.3560479966105798</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.3560479966105798</v>
       </c>
       <c r="Q5">
-        <v>32.57837468634348</v>
+        <v>1.773537834096</v>
       </c>
       <c r="R5">
-        <v>32.57837468634348</v>
+        <v>15.961840506864</v>
       </c>
       <c r="S5">
-        <v>0.4685241914777357</v>
+        <v>0.006700968515432006</v>
       </c>
       <c r="T5">
-        <v>0.4685241914777357</v>
+        <v>0.006700968515432006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12.56197866666667</v>
+      </c>
+      <c r="H6">
+        <v>37.68593600000001</v>
+      </c>
+      <c r="I6">
+        <v>0.01882040786417077</v>
+      </c>
+      <c r="J6">
+        <v>0.01882040786417077</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2550053333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.7650159999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="P6">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="Q6">
+        <v>3.203371557219556</v>
+      </c>
+      <c r="R6">
+        <v>28.830344014976</v>
+      </c>
+      <c r="S6">
+        <v>0.01210331775025258</v>
+      </c>
+      <c r="T6">
+        <v>0.01210331775025258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.56197866666667</v>
+      </c>
+      <c r="H7">
+        <v>37.68593600000001</v>
+      </c>
+      <c r="I7">
+        <v>0.01882040786417077</v>
+      </c>
+      <c r="J7">
+        <v>0.01882040786417077</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.0003396666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.001019</v>
+      </c>
+      <c r="O7">
+        <v>0.0008566019717817321</v>
+      </c>
+      <c r="P7">
+        <v>0.000856601971781732</v>
+      </c>
+      <c r="Q7">
+        <v>0.004266885420444445</v>
+      </c>
+      <c r="R7">
+        <v>0.03840196878400001</v>
+      </c>
+      <c r="S7">
+        <v>1.61215984861851E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.61215984861851E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.434597398643164</v>
-      </c>
-      <c r="H6">
-        <v>0.434597398643164</v>
-      </c>
-      <c r="I6">
-        <v>0.0007603932024842378</v>
-      </c>
-      <c r="J6">
-        <v>0.0007603932024842378</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.121660191956022</v>
-      </c>
-      <c r="N6">
-        <v>0.121660191956022</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.05287320294251514</v>
-      </c>
-      <c r="R6">
-        <v>0.05287320294251514</v>
-      </c>
-      <c r="S6">
-        <v>0.0007603932024842378</v>
-      </c>
-      <c r="T6">
-        <v>0.0007603932024842378</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>319.839569</v>
+      </c>
+      <c r="H8">
+        <v>959.5187069999999</v>
+      </c>
+      <c r="I8">
+        <v>0.4791849516233793</v>
+      </c>
+      <c r="J8">
+        <v>0.4791849516233793</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.141183</v>
+      </c>
+      <c r="N8">
+        <v>0.423549</v>
+      </c>
+      <c r="O8">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="P8">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="Q8">
+        <v>45.155909870127</v>
+      </c>
+      <c r="R8">
+        <v>406.403188831143</v>
+      </c>
+      <c r="S8">
+        <v>0.1706128420314418</v>
+      </c>
+      <c r="T8">
+        <v>0.1706128420314418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>319.839569</v>
+      </c>
+      <c r="H9">
+        <v>959.5187069999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4791849516233793</v>
+      </c>
+      <c r="J9">
+        <v>0.4791849516233793</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2550053333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.7650159999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="P9">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="Q9">
+        <v>81.56079590603466</v>
+      </c>
+      <c r="R9">
+        <v>734.0471631543119</v>
+      </c>
+      <c r="S9">
+        <v>0.3081616388175287</v>
+      </c>
+      <c r="T9">
+        <v>0.3081616388175288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>319.839569</v>
+      </c>
+      <c r="H10">
+        <v>959.5187069999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4791849516233793</v>
+      </c>
+      <c r="J10">
+        <v>0.4791849516233793</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.0003396666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.001019</v>
+      </c>
+      <c r="O10">
+        <v>0.0008566019717817321</v>
+      </c>
+      <c r="P10">
+        <v>0.000856601971781732</v>
+      </c>
+      <c r="Q10">
+        <v>0.1086388402703333</v>
+      </c>
+      <c r="R10">
+        <v>0.9777495624329999</v>
+      </c>
+      <c r="S10">
+        <v>0.0004104707744087206</v>
+      </c>
+      <c r="T10">
+        <v>0.0004104707744087206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>332.4413046666667</v>
+      </c>
+      <c r="H11">
+        <v>997.3239140000001</v>
+      </c>
+      <c r="I11">
+        <v>0.4980649235877058</v>
+      </c>
+      <c r="J11">
+        <v>0.4980649235877059</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.141183</v>
+      </c>
+      <c r="N11">
+        <v>0.423549</v>
+      </c>
+      <c r="O11">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="P11">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="Q11">
+        <v>46.935060716754</v>
+      </c>
+      <c r="R11">
+        <v>422.4155464507861</v>
+      </c>
+      <c r="S11">
+        <v>0.1773350182254042</v>
+      </c>
+      <c r="T11">
+        <v>0.1773350182254042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>332.4413046666667</v>
+      </c>
+      <c r="H12">
+        <v>997.3239140000001</v>
+      </c>
+      <c r="I12">
+        <v>0.4980649235877058</v>
+      </c>
+      <c r="J12">
+        <v>0.4980649235877059</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2550053333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.7650159999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="P12">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="Q12">
+        <v>84.77430571029154</v>
+      </c>
+      <c r="R12">
+        <v>762.968751392624</v>
+      </c>
+      <c r="S12">
+        <v>0.3203032619666811</v>
+      </c>
+      <c r="T12">
+        <v>0.3203032619666811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>332.4413046666667</v>
+      </c>
+      <c r="H13">
+        <v>997.3239140000001</v>
+      </c>
+      <c r="I13">
+        <v>0.4980649235877058</v>
+      </c>
+      <c r="J13">
+        <v>0.4980649235877059</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.0003396666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.001019</v>
+      </c>
+      <c r="O13">
+        <v>0.0008566019717817321</v>
+      </c>
+      <c r="P13">
+        <v>0.000856601971781732</v>
+      </c>
+      <c r="Q13">
+        <v>0.1129192298184444</v>
+      </c>
+      <c r="R13">
+        <v>1.016273068366</v>
+      </c>
+      <c r="S13">
+        <v>0.0004266433956205466</v>
+      </c>
+      <c r="T13">
+        <v>0.0004266433956205466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6344013333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.903204</v>
+      </c>
+      <c r="I14">
+        <v>0.0009504626746890741</v>
+      </c>
+      <c r="J14">
+        <v>0.0009504626746890741</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.141183</v>
+      </c>
+      <c r="N14">
+        <v>0.423549</v>
+      </c>
+      <c r="O14">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="P14">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="Q14">
+        <v>0.08956668344400001</v>
+      </c>
+      <c r="R14">
+        <v>0.8061001509960001</v>
+      </c>
+      <c r="S14">
+        <v>0.0003384103311761781</v>
+      </c>
+      <c r="T14">
+        <v>0.0003384103311761781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6344013333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.903204</v>
+      </c>
+      <c r="I15">
+        <v>0.0009504626746890741</v>
+      </c>
+      <c r="J15">
+        <v>0.0009504626746890741</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2550053333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.7650159999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="P15">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="Q15">
+        <v>0.1617757234737778</v>
+      </c>
+      <c r="R15">
+        <v>1.455981511264</v>
+      </c>
+      <c r="S15">
+        <v>0.0006112381753116524</v>
+      </c>
+      <c r="T15">
+        <v>0.0006112381753116524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6344013333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.903204</v>
+      </c>
+      <c r="I16">
+        <v>0.0009504626746890741</v>
+      </c>
+      <c r="J16">
+        <v>0.0009504626746890741</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0003396666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.001019</v>
+      </c>
+      <c r="O16">
+        <v>0.0008566019717817321</v>
+      </c>
+      <c r="P16">
+        <v>0.000856601971781732</v>
+      </c>
+      <c r="Q16">
+        <v>0.0002154849862222222</v>
+      </c>
+      <c r="R16">
+        <v>0.001939364876</v>
+      </c>
+      <c r="S16">
+        <v>8.141682012435999E-07</v>
+      </c>
+      <c r="T16">
+        <v>8.141682012435998E-07</v>
       </c>
     </row>
   </sheetData>
